--- a/biology/Zoologie/Anthocoris/Anthocoris.xlsx
+++ b/biology/Zoologie/Anthocoris/Anthocoris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le genre Anthocoris comprend des insectes hétéroptères prédateurs de la famille des Anthocoridae dont les larves et les adultes ont pour proies principalement les psylles  et les pucerons sur les arbres fruitiers, la vigne, les grandes cultures, les cultures légumières et les cultures ornementales.
 </t>
@@ -511,10 +523,12 @@
           <t>Mode de vie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Les anthocoris vivent dans la majorité des cas en prédateurs non spécifiques sur la partie aérienne des plantes. En général ubiquistes, certaines espèces tendent à préférer des plantes particulières. Rares différences d'écologie entre les nymphes et les adultes. La femelle hiberne, le mâle l'imite parfois. on peut trouver les œufs sous les épidermes des feuilles et des tiges des plantes hôtes. Selon l'espèce et le climat, on compte de 1 à 4 générations annuelles.
-Ils se nourrissent d'aphides (pucerons…)[1], de psylles, de psoques, d'œufs de divers insectes (lépidoptères, hyménoptères…) et de larves d'homoptères.
+Ils se nourrissent d'aphides (pucerons…), de psylles, de psoques, d'œufs de divers insectes (lépidoptères, hyménoptères…) et de larves d'homoptères.
 </t>
         </is>
       </c>
@@ -543,7 +557,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Anthocoris albiger Reuter, 1884
 Anthocoris antevolens White, 1879
